--- a/stage.xlsx
+++ b/stage.xlsx
@@ -21,7 +21,7 @@
     <author>王朋</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,51 +201,6 @@
             <charset val="134"/>
           </rPr>
           <t>个物品</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>场景资源</t>
         </r>
       </text>
     </comment>
@@ -290,11 +245,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>天气</t>
+          <t>场景资源</t>
         </r>
       </text>
     </comment>
     <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>天气</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_bg.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +546,34 @@
   <si>
     <t>1,addCopper(10);1,lotteryPool(2);</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlescene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rolename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1003</t>
+  </si>
+  <si>
+    <t>ROLE_NAME_1004</t>
+  </si>
+  <si>
+    <t>ROLE_NAME_1005</t>
+  </si>
+  <si>
+    <t>ROLE_NAME_1006</t>
   </si>
 </sst>
 </file>
@@ -921,23 +945,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="67.375" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="3" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="67.375" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,19 +972,22 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -971,19 +998,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -994,19 +1024,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1017,19 +1050,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1040,19 +1076,22 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1063,19 +1102,22 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1086,16 +1128,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -528,26 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addCopper(10);0.5,addEquipment(2);1,lotteryPool(1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper(20);1,lotteryPool(1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper(100);0.5,addEquipment(2);1,lotteryPool(2);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper(30);1,lotteryPool(1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper(10);1,lotteryPool(2);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>battlescene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +554,26 @@
   </si>
   <si>
     <t>ROLE_NAME_1006</t>
+  </si>
+  <si>
+    <t>1,addCopper,10;0.5,addEquipment,2;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,20;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,30;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,100;0.5,addEquipment,2;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,10;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -998,13 +998,13 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -1024,13 +1024,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -1050,13 +1050,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -1076,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1102,13 +1102,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -1128,13 +1128,13 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,10 +556,6 @@
     <t>ROLE_NAME_1006</t>
   </si>
   <si>
-    <t>1,addCopper,10;0.5,addEquipment,2;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,addCopper,20;1,lotteryPool,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,11 +564,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addCopper,100;0.5,addEquipment,2;1,lotteryPool,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,addCopper,10;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,10;0.5,addEquip,2;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,100;0.5,addEquip,2;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelneed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -956,12 +964,13 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="67.375" customWidth="1"/>
-    <col min="6" max="6" width="33.875" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="6" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,16 +987,22 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1001,19 +1016,25 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1027,19 +1048,25 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1053,19 +1080,25 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1079,19 +1112,25 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1105,19 +1144,25 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1131,15 +1176,21 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,55 +246,55 @@
             <charset val="134"/>
           </rPr>
           <t>场景资源</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>天气</t>
         </r>
       </text>
     </comment>
     <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>天气</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,10 @@
   </si>
   <si>
     <t>levelneed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageneed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -964,13 +968,13 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="67.375" customWidth="1"/>
-    <col min="6" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="33.875" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="6" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,16 +997,19 @@
         <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1024,17 +1031,20 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1056,17 +1066,20 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>1001</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1088,17 +1101,20 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>1002</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1120,17 +1136,20 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>1003</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1152,17 +1171,20 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>1004</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1184,13 +1206,16 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>2001</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -21,7 +21,7 @@
     <author>王朋</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,51 +201,6 @@
             <charset val="134"/>
           </rPr>
           <t>个物品</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>场景资源</t>
         </r>
       </text>
     </comment>
@@ -290,11 +245,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>天气</t>
+          <t>场景资源</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>天气</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,23 +568,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,addCopper,100;0.5,addEquip,2;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelneed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageneed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardfirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,addCopper,10;0.5,addEquip,2;1,lotteryPool,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addCopper,100;0.5,addEquip,2;1,lotteryPool,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelneed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageneed</t>
+    <t>1,addEquip,2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,24 +965,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="67.375" customWidth="1"/>
-    <col min="6" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="33.875" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="3" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="67.375" customWidth="1"/>
+    <col min="7" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,28 +996,31 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1023,28 +1034,31 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1058,28 +1072,31 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1001</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1093,28 +1110,31 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1002</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1128,28 +1148,31 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1003</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1163,28 +1186,31 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1004</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1198,24 +1224,27 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2001</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,18 @@
   </si>
   <si>
     <t>1,addEquip,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,11 +990,11 @@
     <col min="6" max="6" width="67.375" customWidth="1"/>
     <col min="7" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="23.25" customWidth="1"/>
+    <col min="11" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,10 +1029,13 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1055,10 +1070,13 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1093,10 +1111,13 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1131,10 +1152,13 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1169,10 +1193,13 @@
         <v>17</v>
       </c>
       <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1207,10 +1234,13 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1245,6 +1275,9 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -556,10 +556,6 @@
     <t>ROLE_NAME_1006</t>
   </si>
   <si>
-    <t>1,addCopper,20;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,addCopper,30;1,lotteryPool,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addCopper,10;0.5,addEquip,2;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,addEquip,2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +597,14 @@
   </si>
   <si>
     <t>1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,10;1,addCopper,10;0.5,addEquip,2;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,100;1,addGold,20;1,lotteryPool,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1008,19 +1008,19 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -1049,10 +1049,10 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1090,10 +1090,10 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -1131,10 +1131,10 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
@@ -1172,10 +1172,10 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1213,10 +1213,10 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>25</v>
@@ -1254,10 +1254,10 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -21,7 +21,7 @@
     <author>王朋</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,51 +201,6 @@
             <charset val="134"/>
           </rPr>
           <t>个物品</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>场景资源</t>
         </r>
       </text>
     </comment>
@@ -290,11 +245,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>天气</t>
+          <t>场景资源</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>天气</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +605,14 @@
   </si>
   <si>
     <t>1,addExp,100;1,addGold,20;1,lotteryPool,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainmap/1_bg-01-01.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,24 +985,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="67.375" customWidth="1"/>
-    <col min="7" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="3" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="67.375" customWidth="1"/>
+    <col min="8" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
+    <col min="12" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,34 +1016,37 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1049,34 +1060,37 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1090,34 +1104,37 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1001</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1131,34 +1148,37 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1002</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1172,34 +1192,37 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1003</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1213,34 +1236,37 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1004</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1254,30 +1280,33 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2001</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,19 +600,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addExp,10;1,addCopper,10;0.5,addEquip,2;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addExp,100;1,addGold,20;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>trainmap/1_bg-01-01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,100;1,addGold,20;1,addMaterial,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addBlueprint,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,10;1,addSoul,1;1,addCopper,10000;0.5,addEquip,2;1,addBlueprint,1;1,addMaterial,1,10;1,lotteryPool,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1016,7 +1020,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -1060,13 +1064,13 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1104,13 +1108,13 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1148,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1192,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1236,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -1280,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,95 +512,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,1;2,1;1,1;1,1;1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlescene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rolename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_1003</t>
+  </si>
+  <si>
+    <t>1,addCopper,10;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addCopper,100;0.5,addEquip,2;1,lotteryPool,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelneed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageneed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardfirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addEquip,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1;2,1;1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;2,1;1,1;1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;2,1;1,1;1,1;1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battlescene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rolename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME_1003</t>
+    <t>bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainmap/1_bg-01-01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_NAME_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_DESC_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_DESC_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ROLE_NAME_1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ROLE_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ROLE_NAME_1006</t>
-  </si>
-  <si>
-    <t>1,addCopper,30;1,lotteryPool,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper,10;1,lotteryPool,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addCopper,100;0.5,addEquip,2;1,lotteryPool,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelneed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageneed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardfirst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addEquip,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME_2002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,7 +619,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addExp,100;1,addGold,20;1,addMaterial,1;</t>
+    <t>2,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;1,1;1,1;0,0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;2,1;2,1;0,0;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,7 +643,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addExp,10;1,addSoul,1;1,addCopper,10000;0.5,addEquip,2;1,addBlueprint,1;1,addMaterial,1,10;1,lotteryPool,1;</t>
+    <t>1,addExp,10;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addGold,20;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addMaterial,1,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,20;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addSoul,3000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,30;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,40;1,addCopper,10;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,16 +1040,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="6" width="17.125" customWidth="1"/>
+    <col min="3" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="67.375" customWidth="1"/>
     <col min="8" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="33.875" customWidth="1"/>
@@ -1017,25 +1070,25 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -1044,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -1061,16 +1114,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1082,16 +1135,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1105,16 +1155,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1126,16 +1176,13 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1149,16 +1196,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1170,16 +1214,13 @@
         <v>1002</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1193,16 +1234,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1214,39 +1255,36 @@
         <v>1003</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1257,40 +1295,31 @@
       <c r="J6">
         <v>1004</v>
       </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1299,18 +1328,97 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>1005</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>2001</v>
       </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1006</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/stage.xlsx
+++ b/stage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11595"/>
+    <workbookView xWindow="480" yWindow="100" windowWidth="18200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -422,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +673,10 @@
   </si>
   <si>
     <t>1,addExp,40;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,10;1,addCopper,10;1,addSoul,1000;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +757,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1039,24 +1048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="67.375" customWidth="1"/>
-    <col min="8" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="33.875" customWidth="1"/>
-    <col min="12" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
+    <col min="8" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33.83203125" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1123,7 +1132,7 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1423,34 +1432,50 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/stage.xlsx
+++ b/stage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="100" windowWidth="18200" windowHeight="11600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,47 +644,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,addExp,10;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addGold,20;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addMaterial,1,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,20;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addSoul,3000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,30;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,addExp,40;1,addCopper,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,addBlueprint,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,addExp,10;1,addCopper,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addGold,20;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addMaterial,1,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addExp,20;1,addCopper,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addSoul,3000;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addExp,30;1,addCopper,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addExp,40;1,addCopper,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,addExp,10;1,addCopper,10;1,addSoul,1000;</t>
+    <t>1,addExp,10;1,addCopper,10;1,addSoul,1000;1,addBlueprint,1;1,addMaterial,1,10;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,10 +757,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1048,27 +1053,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" customWidth="1"/>
-    <col min="8" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="33.83203125" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="67.375" customWidth="1"/>
+    <col min="8" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
+    <col min="12" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
@@ -1153,7 +1158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1170,10 +1175,10 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1194,7 +1199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1232,7 +1237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1249,10 +1254,10 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1273,7 +1278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1290,10 +1295,10 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1311,7 +1316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1343,7 +1348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1432,7 +1437,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1445,12 +1449,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,12 +1467,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
